--- a/Epam_Task7/Resources/Report1.xlsx
+++ b/Epam_Task7/Resources/Report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task7\Task7\Epam_Task7\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97744DAA-948D-4AF2-B0D4-AF31D09F7FA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3DD4E8-888F-43CB-80B9-566768B17880}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{69C23F2F-ECAA-4F97-9957-F6476CE6ED4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{6423FB5D-CAE2-43E5-99B2-925565F7D6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,81 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Session</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>EducationSubject</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>IP-32</t>
-  </si>
-  <si>
-    <t>Shyshkavets Pavel Sergeevich</t>
-  </si>
-  <si>
-    <t>OOP</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Reita Match Sergeevna</t>
-  </si>
-  <si>
-    <t>Not Passes</t>
-  </si>
-  <si>
-    <t>IP-21</t>
-  </si>
-  <si>
-    <t>Artem Lukavtsov Gennadevich</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Borisenko Ivan Sergeevich</t>
-  </si>
-  <si>
-    <t>Not Passed</t>
-  </si>
-  <si>
-    <t>IP-31</t>
-  </si>
-  <si>
-    <t>Chaykov Andey Vasllyevich</t>
-  </si>
-  <si>
-    <t>SUBD</t>
-  </si>
-  <si>
-    <t>TVIMS</t>
-  </si>
-  <si>
-    <t>Palatkin Daniil Aleksandrovich</t>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Average Mark</t>
+  </si>
+  <si>
+    <t>_x000D_
+Engineer system programmer</t>
+  </si>
+  <si>
+    <t>Software engineer</t>
+  </si>
+  <si>
+    <t>electronics engineer</t>
   </si>
 </sst>
 </file>
@@ -136,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -451,14 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DD5827-5587-4FDA-A603-F22EFCF68877}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F667100-049A-415F-8A6F-1E71E07A4EC3}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,260 +415,41 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>5.5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
+      <c r="C4">
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F13">
-    <sortCondition ref="D1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Epam_Task7/Resources/Report1.xlsx
+++ b/Epam_Task7/Resources/Report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task7\Task7\Epam_Task7\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3DD4E8-888F-43CB-80B9-566768B17880}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0BB052-2EA2-4E87-BF11-86D2CF9F8716}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{6423FB5D-CAE2-43E5-99B2-925565F7D6D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{98B942C3-A48A-4C7D-9914-5CB8E831F08C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Session</t>
   </si>
@@ -38,12 +38,6 @@
   <si>
     <t>_x000D_
 Engineer system programmer</t>
-  </si>
-  <si>
-    <t>Software engineer</t>
-  </si>
-  <si>
-    <t>electronics engineer</t>
   </si>
 </sst>
 </file>
@@ -398,8 +392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F667100-049A-415F-8A6F-1E71E07A4EC3}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C55D410-5FC7-4B68-829B-01B325A47C4F}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,28 +421,6 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5.75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
